--- a/residency-dashboard/RISA.xlsx
+++ b/residency-dashboard/RISA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8085" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet Expectations" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>applicants</t>
   </si>
@@ -402,13 +402,40 @@
     <t>Step3</t>
   </si>
   <si>
-    <t>abstract data</t>
-  </si>
-  <si>
-    <t>build likelihood model</t>
-  </si>
-  <si>
     <t>build program class + map</t>
+  </si>
+  <si>
+    <t>10/20/2016 3pm</t>
+  </si>
+  <si>
+    <t>accomplishments</t>
+  </si>
+  <si>
+    <t>huge groundwork done on RISA.xlsx</t>
+  </si>
+  <si>
+    <t>take form of ERAS, convert t</t>
+  </si>
+  <si>
+    <t>I suppose they have all this information on ERAS, and perhaps mining past data from there would be more helpful.</t>
+  </si>
+  <si>
+    <t>API?</t>
+  </si>
+  <si>
+    <t>program class: how I've imagined this would work is twofold</t>
+  </si>
+  <si>
+    <t>abstract data from trusted sources</t>
+  </si>
+  <si>
+    <t>clean data to be useable…</t>
+  </si>
+  <si>
+    <t>build likelihood model…</t>
+  </si>
+  <si>
+    <t>add interactivity features… …I should be able to put in my step scores and a given specialty and you should tell me what % of people who have matched that I am better than…</t>
   </si>
 </sst>
 </file>
@@ -470,18 +497,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -506,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,7 +542,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,13 +582,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>16727</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>188941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>420859</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>24893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -946,7 +966,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42663</v>
       </c>
     </row>
@@ -1038,31 +1058,31 @@
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>(0.01*$C$9)*$G$9*$H$9</f>
         <v>10642.8</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f>(0.02*$C$9)*$G$9*$H$9</f>
         <v>21285.599999999999</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f>(0.03*$C$9)*$G$9*$H$9</f>
         <v>31928.399999999998</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f>(0.05*$C$9)*$G$9*$H$9</f>
         <v>53214</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f>(0.08*$C$9)*$G$9*$H$9</f>
         <v>85142.399999999994</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <f>(0.13*$C$9)*$G$9*$H$9</f>
         <v>138356.40000000002</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <f>(0.21*$C$9)*$G$9*$H$9</f>
         <v>223498.80000000002</v>
       </c>
@@ -1071,7 +1091,7 @@
       <c r="B10" s="5">
         <v>2017</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <f>C9+(C9*0.015)</f>
         <v>36008.14</v>
       </c>
@@ -1087,31 +1107,31 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>(0.01*$C$10)*$G$10*$H$10</f>
         <v>10802.441999999999</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f>(0.02*$C$10)*$G$10*$H$10</f>
         <v>21604.883999999998</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f>(0.03*$C$10)*$G$10*$H$10</f>
         <v>32407.325999999997</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f>(0.04*$C$10)*$G$10*$H$10</f>
         <v>43209.767999999996</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>(0.08*$C$10)*$G$10*$H$10</f>
         <v>86419.535999999993</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <f>(0.13*$C$10)*$G$10*$H$10</f>
         <v>140431.74600000001</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <f>(0.21*$C$10)*$G$10*$H$10</f>
         <v>226851.28200000001</v>
       </c>
@@ -1120,7 +1140,7 @@
       <c r="B11" s="5">
         <v>2018</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f t="shared" ref="C11:C14" si="0">C10+(C10*0.015)</f>
         <v>36548.2621</v>
       </c>
@@ -1136,31 +1156,31 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f>(0.01*$C$11)*$G$11*$H$11</f>
         <v>10964.478630000001</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f>(0.02*$C$11)*$G$11*$H$11</f>
         <v>21928.957260000003</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f>(0.03*$C$11)*$G$11*$H$11</f>
         <v>32893.435889999993</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f>(0.05*$C$11)*$G$11*$H$11</f>
         <v>54822.393150000004</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f>(0.08*$C$11)*$G$11*$H$11</f>
         <v>87715.829040000011</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <f>(0.13*$C$11)*$G$11*$H$11</f>
         <v>142538.22219</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <f>(0.21*$C$11)*$G$11*$H$11</f>
         <v>230254.05122999998</v>
       </c>
@@ -1169,7 +1189,7 @@
       <c r="B12" s="5">
         <v>2019</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>37096.486031499997</v>
       </c>
@@ -1185,31 +1205,31 @@
       <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>(0.01*$C$12)*$G$12*$H$12</f>
         <v>11128.945809449999</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f>(0.02*$C$12)*$G$12*$H$12</f>
         <v>22257.891618899997</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f>(0.03*$C$12)*$G$12*$H$12</f>
         <v>33386.837428349994</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f>(0.05*$C$12)*$G$12*$H$12</f>
         <v>55644.729047249995</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f>(0.08*$C$12)*$G$12*$H$12</f>
         <v>89031.56647559999</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <f>(0.13*$C$12)*$G$12*$H$12</f>
         <v>144676.29552285001</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <f>(0.21*$C$12)*$G$12*$H$12</f>
         <v>233707.86199844995</v>
       </c>
@@ -1218,7 +1238,7 @@
       <c r="B13" s="5">
         <v>2020</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f t="shared" si="0"/>
         <v>37652.933321972494</v>
       </c>
@@ -1234,31 +1254,31 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>(0.01*$C$13)*$G$13*$H$13</f>
         <v>11295.87999659175</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f>(0.02*$C$13)*$G$13*$H$13</f>
         <v>22591.759993183499</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f>(0.03*$C$13)*$G$13*$H$13</f>
         <v>33887.639989775242</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f>(0.05*$C$13)*$G$13*$H$13</f>
         <v>56479.399982958741</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>(0.08*$C$13)*$G$13*$H$13</f>
         <v>90367.039972733997</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <f>(0.13*$C$13)*$G$13*$H$13</f>
         <v>146846.43995569274</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <f>(0.21*$C$13)*$G$13*$H$13</f>
         <v>237213.47992842674</v>
       </c>
@@ -1267,7 +1287,7 @@
       <c r="B14" s="5">
         <v>2021</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>38217.727321802078</v>
       </c>
@@ -1283,64 +1303,64 @@
       <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <f>(0.01*$C$14)*$G$14*$H$14</f>
         <v>11465.318196540622</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f>(0.02*$C$14)*$G$14*$H$14</f>
         <v>22930.636393081244</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <f>(0.03*$C$14)*$G$14*$H$14</f>
         <v>34395.954589621862</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <f>(0.05*$C$14)*$G$14*$H$14</f>
         <v>57326.590982703114</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <f>(0.08*$C$14)*$G$14*$H$14</f>
         <v>91722.545572324976</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <f>(0.13*$C$14)*$G$14*$H$14</f>
         <v>149049.13655502812</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="10">
         <f>(0.21*$C$14)*$G$14*$H$14</f>
         <v>240771.68212735309</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f>SUM(J9:J14)</f>
         <v>66299.864632582365</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" ref="K15:P15" si="1">SUM(K9:K14)</f>
         <v>132599.72926516473</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" si="1"/>
         <v>198899.59389774711</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="1"/>
         <v>320696.88116291189</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f t="shared" si="1"/>
         <v>530398.91706065892</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <f t="shared" si="1"/>
         <v>861898.24022357096</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <f t="shared" si="1"/>
         <v>1392297.1572842298</v>
       </c>
@@ -1415,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1461,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42663</v>
       </c>
     </row>
@@ -1449,7 +1469,7 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1461,66 +1481,97 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
         <f>"- Competitve mode: deconstruct data sources like prior Charting Outcomes and Report on Residents to build a likelihood score of matching in a given speciality?"</f>
         <v>- Competitve mode: deconstruct data sources like prior Charting Outcomes and Report on Residents to build a likelihood score of matching in a given speciality?</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
         <f xml:space="preserve"> "- ERAS simulator: give access to all of the fields required by ERAS. In-App Purchase - proofread"</f>
         <v>- ERAS simulator: give access to all of the fields required by ERAS. In-App Purchase - proofread</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="str">
         <f>"- Personal Statement Coach. One revision included. In-app Purchase - multiple revisions"</f>
         <v>- Personal Statement Coach. One revision included. In-app Purchase - multiple revisions</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
+    <row r="21" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
         <f>"- Rank Mapper: Make a more objective ROL using formalized assessment profiles and custom-weighted scales"</f>
         <v>- Rank Mapper: Make a more objective ROL using formalized assessment profiles and custom-weighted scales</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1528,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +1603,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42663</v>
       </c>
     </row>
@@ -1560,14 +1611,14 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1590,7 +1641,7 @@
       <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>42</v>
       </c>
       <c r="M11" t="s">
@@ -1616,7 +1667,7 @@
       <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>42</v>
       </c>
       <c r="M12" t="s">
@@ -1885,7 +1936,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42663</v>
       </c>
     </row>
@@ -1911,41 +1962,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42663</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1967,8 +2018,11 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1978,7 +2032,15 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
